--- a/10-04캡스톤/캡스톤Db구상 09월08일.xlsx
+++ b/10-04캡스톤/캡스톤Db구상 09월08일.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alzhx\Desktop\10-04캡스톤\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alzhx\Desktop\캡스톤\CAP_DB\YUHAN_CAPSTONE_DB\10-04캡스톤\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62340BFB-A892-43FD-8016-0016E68E8211}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CF9B62D-A64B-4E8C-A280-5C8E1E6784FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2600" yWindow="1740" windowWidth="19810" windowHeight="13010" xr2:uid="{A62C6EFF-DA20-44F1-B753-B6A6F797B5D4}"/>
+    <workbookView xWindow="-160" yWindow="1310" windowWidth="19810" windowHeight="13010" xr2:uid="{A62C6EFF-DA20-44F1-B753-B6A6F797B5D4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="53">
   <si>
     <t>테이블</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -236,6 +236,14 @@
   </si>
   <si>
     <t>1주차(pk)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>학번(fk)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강의코드(fk)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -626,7 +634,7 @@
   <dimension ref="A1:I40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -780,10 +788,10 @@
         <v>31</v>
       </c>
       <c r="C14" t="s">
-        <v>5</v>
+        <v>51</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="E14" t="s">
         <v>22</v>

--- a/10-04캡스톤/캡스톤Db구상 09월08일.xlsx
+++ b/10-04캡스톤/캡스톤Db구상 09월08일.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alzhx\Desktop\캡스톤\CAP_DB\YUHAN_CAPSTONE_DB\10-04캡스톤\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CF9B62D-A64B-4E8C-A280-5C8E1E6784FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F52CA0CB-F63B-499D-B0DA-824C8A8F6F92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-160" yWindow="1310" windowWidth="19810" windowHeight="13010" xr2:uid="{A62C6EFF-DA20-44F1-B753-B6A6F797B5D4}"/>
+    <workbookView xWindow="4690" yWindow="1700" windowWidth="21760" windowHeight="13350" xr2:uid="{A62C6EFF-DA20-44F1-B753-B6A6F797B5D4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -633,8 +633,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AD96C91-831A-401F-BBD0-9D86A8050B77}">
   <dimension ref="A1:I40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
